--- a/AOS E2E New user, login and delete user/Default.xlsx
+++ b/AOS E2E New user, login and delete user/Default.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Create New User" sheetId="2" r:id="rId2"/>
-    <sheet name="Log in to user account" sheetId="3" r:id="rId3"/>
-    <sheet name="Delete user account" sheetId="4" r:id="rId4"/>
+    <sheet name="Log in to user account" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete user account" sheetId="3" r:id="rId3"/>
+    <sheet name="Create New User" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -183,7 +183,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -194,9 +196,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -519,7 +519,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -538,18 +538,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
@@ -609,7 +609,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="15.1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
